--- a/formshare/tests/resources/forms/form03.xlsx
+++ b/formshare/tests/resources/forms/form03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -105,25 +105,10 @@
     <t xml:space="preserve">GPS</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begin table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbl1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grp2</t>
+    <t xml:space="preserve">select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -186,7 +171,7 @@
     <t xml:space="preserve">Just a test</t>
   </si>
   <si>
-    <t xml:space="preserve">Justtest-date</t>
+    <t xml:space="preserve">Justtest</t>
   </si>
 </sst>
 </file>
@@ -312,10 +297,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -452,83 +437,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -567,7 +483,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -578,24 +494,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -606,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -617,12 +533,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>1</v>
@@ -633,31 +549,31 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>1</v>
@@ -668,46 +584,46 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -728,8 +644,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -742,18 +658,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
